--- a/sd-swagger/ig/StructureDefinition-ror-location.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T11:06:51+00:00</t>
+    <t>2024-03-15T13:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-location.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:27:56+00:00</t>
+    <t>2024-03-15T13:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-location.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:59:29+00:00</t>
+    <t>2024-03-15T17:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,13 +234,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Location du Modèle exposition ROR V3</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Location du Modèle exposition ROR V3</t>
   </si>
   <si>
     <t/>
@@ -266,10 +266,10 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>LieuRealisationOffre</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>LieuRealisationOffre</t>
   </si>
   <si>
     <t>Location.id</t>
@@ -324,10 +324,10 @@
 </t>
   </si>
   <si>
+    <t>metadonnee</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>metadonnee</t>
   </si>
   <si>
     <t>Location.meta.id</t>
@@ -1253,15 +1253,15 @@
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
+    <t>Pas d'équivalent</t>
+  </si>
+  <si>
     <t>.statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>Pas d'équivalent</t>
-  </si>
-  <si>
     <t>Location.operationalStatus</t>
   </si>
   <si>
@@ -1292,10 +1292,10 @@
     <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
   </si>
   <si>
+    <t>nom</t>
+  </si>
+  <si>
     <t>.name</t>
-  </si>
-  <si>
-    <t>nom</t>
   </si>
   <si>
     <t>Location.alias</t>
@@ -1335,12 +1335,12 @@
     <t>Humans need additional information to verify a correct location has been identified.</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Location.mode</t>
   </si>
   <si>
@@ -1380,10 +1380,10 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J198-FonctionLieu-ROR/FHIR/JDV-J198-FonctionLieu-ROR</t>
   </si>
   <si>
+    <t>fonctionLieu</t>
+  </si>
+  <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>fonctionLieu</t>
   </si>
   <si>
     <t>Location.telecom</t>
@@ -1403,10 +1403,10 @@
 cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>telecommunication</t>
+  </si>
+  <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>telecommunication</t>
   </si>
   <si>
     <t>Location.telecom.id</t>
@@ -1506,10 +1506,10 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>adresseTelecom</t>
+  </si>
+  <si>
     <t>./url</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>Location.telecom.use</t>
@@ -1592,10 +1592,10 @@
     <t>If locations can be visited, we need to keep track of their address.</t>
   </si>
   <si>
+    <t>adresse</t>
+  </si>
+  <si>
     <t>.addr</t>
-  </si>
-  <si>
-    <t>adresse</t>
   </si>
   <si>
     <t>Location.address.id</t>
@@ -1719,10 +1719,10 @@
     <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
   </si>
   <si>
+    <t>pointRemise</t>
+  </si>
+  <si>
     <t>ADXP[partType=CAR]</t>
-  </si>
-  <si>
-    <t>pointRemise</t>
   </si>
   <si>
     <t>Location.address.line.extension:additionalLocator</t>
@@ -1741,10 +1741,10 @@
     <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
   </si>
   <si>
+    <t>complementPointGeographique</t>
+  </si>
+  <si>
     <t>ADXP[partType=ADL]</t>
-  </si>
-  <si>
-    <t>complementPointGeographique</t>
   </si>
   <si>
     <t>Location.address.line.extension:houseNumber</t>
@@ -1763,10 +1763,10 @@
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
+    <t>numeroVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNR]</t>
-  </si>
-  <si>
-    <t>numeroVoie</t>
   </si>
   <si>
     <t>Location.address.line.extension:buildingNumberSuffix</t>
@@ -1785,10 +1785,10 @@
     <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
   </si>
   <si>
+    <t>extension</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNS]</t>
-  </si>
-  <si>
-    <t>extension</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameType</t>
@@ -1807,10 +1807,10 @@
     <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
   </si>
   <si>
+    <t>typeVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=STTYP]</t>
-  </si>
-  <si>
-    <t>typeVoie</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameType.id</t>
@@ -1903,10 +1903,10 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
+    <t>libelleVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=STB]</t>
-  </si>
-  <si>
-    <t>libelleVoie</t>
   </si>
   <si>
     <t>Location.address.line.extension:postalBox</t>
@@ -1925,10 +1925,10 @@
     <t>A numbered box located in a post station.</t>
   </si>
   <si>
+    <t>mentionDistribution</t>
+  </si>
+  <si>
     <t>ADXP[partType=POB]</t>
-  </si>
-  <si>
-    <t>mentionDistribution</t>
   </si>
   <si>
     <t>Location.address.line.extension:lieuDit</t>
@@ -1978,10 +1978,10 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>localite</t>
+  </si>
+  <si>
     <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>localite</t>
   </si>
   <si>
     <t>Location.address.district</t>
@@ -2047,10 +2047,10 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>codePostal</t>
+  </si>
+  <si>
     <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>codePostal</t>
   </si>
   <si>
     <t>Location.address.country</t>
@@ -2129,10 +2129,10 @@
     <t>For mobile applications and automated route-finding knowing the exact location of the Location is required.</t>
   </si>
   <si>
+    <t>coordonneeGeographique</t>
+  </si>
+  <si>
     <t>.playingEntity [classCode=PLC determinerCode=INSTANCE].positionText</t>
-  </si>
-  <si>
-    <t>coordonneeGeographique</t>
   </si>
   <si>
     <t>Location.position.id</t>
@@ -2190,10 +2190,10 @@
     <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)</t>
   </si>
   <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
-  </si>
-  <si>
-    <t>longitude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
@@ -2719,9 +2719,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="51.49609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2946,10 +2946,10 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3054,13 +3054,13 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -3166,10 +3166,10 @@
         <v>100</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -3272,10 +3272,10 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -3383,10 +3383,10 @@
         <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -3494,10 +3494,10 @@
         <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -3605,13 +3605,13 @@
         <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL8" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM8" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -3716,10 +3716,10 @@
         <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -3827,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -3938,10 +3938,10 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -4049,10 +4049,10 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -4160,13 +4160,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -4271,10 +4271,10 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -4382,10 +4382,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -4493,10 +4493,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -4604,10 +4604,10 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>75</v>
@@ -5492,10 +5492,10 @@
         <v>118</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -5601,13 +5601,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5714,13 +5714,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5823,10 +5823,10 @@
         <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5934,10 +5934,10 @@
         <v>118</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -6047,10 +6047,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -6160,10 +6160,10 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -6269,10 +6269,10 @@
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -6380,10 +6380,10 @@
         <v>118</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -6493,10 +6493,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -6602,10 +6602,10 @@
         <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
@@ -6713,10 +6713,10 @@
         <v>118</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -6826,10 +6826,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6937,10 +6937,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -7050,10 +7050,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -7163,10 +7163,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -7276,10 +7276,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -7389,10 +7389,10 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -7502,10 +7502,10 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -7613,10 +7613,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -7724,10 +7724,10 @@
         <v>359</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7835,10 +7835,10 @@
         <v>368</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7948,13 +7948,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -8057,10 +8057,10 @@
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -8168,10 +8168,10 @@
         <v>118</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -8281,10 +8281,10 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -8394,10 +8394,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -8503,10 +8503,10 @@
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -8614,10 +8614,10 @@
         <v>118</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -8727,10 +8727,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8836,10 +8836,10 @@
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -8947,10 +8947,10 @@
         <v>118</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -9060,10 +9060,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -9171,10 +9171,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -9284,10 +9284,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -9397,10 +9397,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -9510,10 +9510,10 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -9623,10 +9623,10 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -9736,10 +9736,10 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9847,10 +9847,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9958,10 +9958,10 @@
         <v>359</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -10069,10 +10069,10 @@
         <v>368</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -10291,13 +10291,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AL68" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AM68" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -10405,10 +10405,10 @@
         <v>412</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -10515,10 +10515,10 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>75</v>
@@ -10630,13 +10630,13 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" hidden="true">
@@ -10746,10 +10746,10 @@
         <v>426</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>427</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" hidden="true">
@@ -10856,13 +10856,13 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -10968,10 +10968,10 @@
         <v>441</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -11077,10 +11077,10 @@
         <v>448</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -11183,10 +11183,10 @@
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>75</v>
@@ -11736,10 +11736,10 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>75</v>
@@ -11852,10 +11852,10 @@
         <v>481</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>75</v>
+        <v>482</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>482</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" hidden="true">
@@ -11962,10 +11962,10 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>75</v>
@@ -12073,10 +12073,10 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>75</v>
@@ -12184,10 +12184,10 @@
         <v>359</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>75</v>
@@ -12300,10 +12300,10 @@
         <v>509</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>510</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -12406,10 +12406,10 @@
         <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -12517,10 +12517,10 @@
         <v>118</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -12630,10 +12630,10 @@
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -12741,10 +12741,10 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>75</v>
@@ -12854,10 +12854,10 @@
         <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -12965,10 +12965,10 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>75</v>
@@ -13074,10 +13074,10 @@
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>75</v>
@@ -13185,10 +13185,10 @@
         <v>118</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>75</v>
@@ -13299,10 +13299,10 @@
         <v>551</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>75</v>
+        <v>552</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>552</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" hidden="true">
@@ -13410,10 +13410,10 @@
         <v>558</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>75</v>
+        <v>559</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>559</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -13521,10 +13521,10 @@
         <v>565</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>75</v>
+        <v>566</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>566</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" hidden="true">
@@ -13632,10 +13632,10 @@
         <v>572</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>75</v>
+        <v>573</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>573</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" hidden="true">
@@ -13743,10 +13743,10 @@
         <v>579</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>580</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" hidden="true">
@@ -13849,10 +13849,10 @@
         <v>75</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>75</v>
@@ -13960,10 +13960,10 @@
         <v>118</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>75</v>
@@ -14071,10 +14071,10 @@
         <v>75</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>75</v>
@@ -14176,10 +14176,10 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>75</v>
@@ -14287,10 +14287,10 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14401,10 +14401,10 @@
         <v>610</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>75</v>
+        <v>611</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>611</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" hidden="true">
@@ -14512,10 +14512,10 @@
         <v>617</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>75</v>
+        <v>618</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>618</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" hidden="true">
@@ -14620,13 +14620,13 @@
         <v>118</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" hidden="true">
@@ -14843,10 +14843,10 @@
         <v>634</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>75</v>
+        <v>635</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>635</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" hidden="true">
@@ -14951,10 +14951,10 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>75</v>
@@ -15062,10 +15062,10 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL111" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>75</v>
@@ -15176,10 +15176,10 @@
         <v>656</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>75</v>
+        <v>657</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" hidden="true">
@@ -15284,10 +15284,10 @@
         <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>75</v>
@@ -15397,10 +15397,10 @@
         <v>359</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>75</v>
@@ -15510,13 +15510,13 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL115" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="AL115" t="s" s="2">
+      <c r="AM115" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -15624,10 +15624,10 @@
         <v>682</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>75</v>
+        <v>683</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>683</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" hidden="true">
@@ -15730,10 +15730,10 @@
         <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL117" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>75</v>
@@ -15841,10 +15841,10 @@
         <v>118</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>75</v>
@@ -16065,10 +16065,10 @@
         <v>118</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>75</v>
@@ -16179,10 +16179,10 @@
         <v>701</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>75</v>
+        <v>702</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>702</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" hidden="true">
@@ -16287,13 +16287,13 @@
         <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>75</v>
+        <v>702</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" hidden="true">
@@ -16398,10 +16398,10 @@
         <v>99</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>75</v>
+        <v>702</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>
@@ -16511,10 +16511,10 @@
         <v>368</v>
       </c>
       <c r="AK124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL124" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>75</v>
@@ -16624,10 +16624,10 @@
         <v>368</v>
       </c>
       <c r="AK125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL125" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>75</v>
@@ -16735,10 +16735,10 @@
         <v>99</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>75</v>
@@ -16844,10 +16844,10 @@
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL127" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>75</v>
@@ -16955,10 +16955,10 @@
         <v>118</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>75</v>
@@ -17068,10 +17068,10 @@
         <v>118</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>75</v>
@@ -17179,10 +17179,10 @@
         <v>99</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL130" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>75</v>
@@ -17288,10 +17288,10 @@
         <v>99</v>
       </c>
       <c r="AK131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL131" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>75</v>
@@ -17397,10 +17397,10 @@
         <v>99</v>
       </c>
       <c r="AK132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL132" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>75</v>
@@ -17506,10 +17506,10 @@
         <v>99</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>75</v>
@@ -17617,10 +17617,10 @@
         <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>75</v>
@@ -17730,10 +17730,10 @@
         <v>368</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
